--- a/Симферополь/2024/07,24/19,07,24 Симф КИ/дв 19,07,24пок.xlsx
+++ b/Симферополь/2024/07,24/19,07,24 Симф КИ/дв 19,07,24пок.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\19,07,24 Симф КИ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\Симферополь\2024\07,24\19,07,24 Симф КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCBE92C-51B2-45CC-B35E-A613C609A816}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96B1755-CDD7-431F-90A4-F6616E03C46C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -16042,10 +16042,10 @@
   <dimension ref="A1:AN117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AP9" sqref="AP9"/>
+      <selection pane="bottomRight" activeCell="AP28" sqref="AP28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
